--- a/it-proj-management/Docx/диаграмма Ганта (шаблон) 2024.xlsx
+++ b/it-proj-management/Docx/диаграмма Ганта (шаблон) 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\4 course\8 sem\it-proj-management\Docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murph\Documents\University\8-sem\unik\it-proj-management\Docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE48CD-D4B0-4111-8E97-C4552951B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072A2A3-8ABA-43FE-9204-14ABEAA68184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt chart1" sheetId="2" r:id="rId1"/>
@@ -170,7 +170,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -249,7 +249,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -531,7 +531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142540160"/>
@@ -592,7 +592,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="142538624"/>
@@ -630,7 +630,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -644,7 +644,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -698,7 +698,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -855,7 +855,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -996,7 +996,7 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107772160"/>
@@ -1031,7 +1031,7 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107770624"/>
@@ -1135,9 +1135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1175,9 +1175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1210,9 +1210,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1245,9 +1262,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1423,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
